--- a/Examples/Tutorials/ConstantWeather.xlsx
+++ b/Examples/Tutorials/ConstantWeather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aaUnderVC\ApsimX\Examples\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79D4B1-360B-464F-AB58-8B95F6BD8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0501B-7645-49F2-92B4-89F85D39A502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20610" yWindow="3645" windowWidth="29760" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
